--- a/examples/gun offenders/profile.xlsx
+++ b/examples/gun offenders/profile.xlsx
@@ -514,14 +514,14 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="S2" t="n">
         <v>17</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>['106A12593', '106D13687', '106D13999', '106D88900', '106F10599', '106F11867', '106F14206', '1K04873', '23A10838', '26C09059', '26K19034', '36G07553', '39H04732', '3L03830', '43L16294', '44J12261', 'ƒ??']</t>
+          <t>['01K04873', '023A10838', '026C09059', '026K19034', '036G07553', '039H04732', '03L03830', '043L16294', '044J12261', '106A12593', '106D13687', '106D13999', '106D88900', '106F10599', '106F11867', '106F14206', 'ƒ??']</t>
         </is>
       </c>
     </row>
@@ -650,14 +650,14 @@
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="S4" t="n">
         <v>11</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>['1/02/2013', '1/11/2013', '10/23/2012', '10/24/2012', '12/27/2011', '2/18/2011', '3/28/2012', '4/13/2012', '7/18/2012', '7/26/2010', '8/09/2012']</t>
+          <t>['02/18/2011', '03/28/2012', '04/13/2012', '07/18/2012', '07/26/2010', '1/02/2013', '1/11/2013', '10/23/2012', '10/24/2012', '12/27/2011', '8/09/2012']</t>
         </is>
       </c>
     </row>
@@ -1228,35 +1228,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10565</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>528.25</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>616.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>173.4030519369617</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30068.61842105263</v>
       </c>
       <c r="K13" t="n">
-        <v>-1</v>
+        <v>211</v>
       </c>
       <c r="L13" t="n">
-        <v>-1</v>
+        <v>834</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
